--- a/data/trans_camb/P40_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P40_R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-7.192460157689765</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.720892833073675</v>
+        <v>4.72089283307367</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-6.720756401750128</v>
@@ -655,7 +655,7 @@
         <v>-9.421693549053971</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.2026776246168649</v>
+        <v>-0.2026776246168593</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-8.417795920562771</v>
@@ -664,7 +664,7 @@
         <v>-9.583274249416684</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.175423977300016</v>
+        <v>1.175423977300027</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.20117430553596</v>
+        <v>-12.07698782486198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.06078839971235</v>
+        <v>-11.75148085840165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5886883789825592</v>
+        <v>-1.155859163684636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.15532657586194</v>
+        <v>-10.78301816425988</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.57404989326269</v>
+        <v>-13.5985704799509</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.5397340016451</v>
+        <v>-5.050397241157627</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-11.66843832792376</v>
+        <v>-11.6384398301489</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.8997108809142</v>
+        <v>-12.44213434111414</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.656916510721666</v>
+        <v>-2.484862652989753</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.522133916155541</v>
+        <v>-3.211817471439443</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.195911167115679</v>
+        <v>-2.962134370693184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.5890719217973</v>
+        <v>10.34694698587907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.365124077121777</v>
+        <v>-2.239828979243555</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.809868367767353</v>
+        <v>-4.866888839212593</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.702437685934783</v>
+        <v>4.95500043236128</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-5.248907257137424</v>
+        <v>-5.085035977337061</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-6.618560730760269</v>
+        <v>-6.516065873289342</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.586285824099531</v>
+        <v>4.908790959740246</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2576347578733199</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1691029293633926</v>
+        <v>0.1691029293633924</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1591906691886234</v>
@@ -760,7 +760,7 @@
         <v>-0.2231662050083334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.004800707653072724</v>
+        <v>-0.004800707653072592</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2295365455405305</v>
@@ -769,7 +769,7 @@
         <v>-0.2613168205711935</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.03205147307454789</v>
+        <v>0.0320514730745482</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.393355144159001</v>
+        <v>-0.3935326290119993</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3877674060974772</v>
+        <v>-0.3788573633759668</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02090849607361902</v>
+        <v>-0.03769503480794278</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2489442841423739</v>
+        <v>-0.2426829413648427</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3041067572397089</v>
+        <v>-0.3090242410322775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1232800889999608</v>
+        <v>-0.1119797984278513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3029190886601219</v>
+        <v>-0.2987755636305454</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3318131320819019</v>
+        <v>-0.325066483249608</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07070333620618294</v>
+        <v>-0.0646708263806032</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1379213481745761</v>
+        <v>-0.1236120477511616</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1273259013968778</v>
+        <v>-0.1181757171909325</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4203224711769825</v>
+        <v>0.4171021755367773</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.05792784657872944</v>
+        <v>-0.05412074201904668</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1225803604588443</v>
+        <v>-0.12382602674514</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1149360902953908</v>
+        <v>0.1259994776691585</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1503112219325882</v>
+        <v>-0.1414408041969734</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1872134609084227</v>
+        <v>-0.1829230828161118</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1327257022611857</v>
+        <v>0.1422390471390505</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-3.581459122141892</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.017845746154803</v>
+        <v>5.017845746154798</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.322883360837315</v>
@@ -878,7 +878,7 @@
         <v>-2.478041605778011</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.05907753022494</v>
+        <v>5.059077530224934</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.456599078963282</v>
+        <v>-2.249655447207004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.221487376607981</v>
+        <v>-5.217200613204061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4620297815283802</v>
+        <v>0.8422201325026827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.94186598480781</v>
+        <v>-3.106821968145657</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.293486812448005</v>
+        <v>-7.822259510901532</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.557076261046106</v>
+        <v>1.798096242958102</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.188474919455687</v>
+        <v>-1.259493036517602</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.888427316854614</v>
+        <v>-4.905230919083156</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.58994032178262</v>
+        <v>2.606589267251052</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.074187942480871</v>
+        <v>4.055313236135238</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.025606565037971</v>
+        <v>1.349654321316543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.469787176113892</v>
+        <v>7.572582863804443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.010031285288873</v>
+        <v>4.809796438994953</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1998782964064405</v>
+        <v>0.341123637955572</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.890454936259488</v>
+        <v>9.046720573588289</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.856847415569904</v>
+        <v>4.035961703799306</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2004137105525585</v>
+        <v>0.1727129363319352</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.434462688318508</v>
+        <v>7.780362516982662</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.134819552296679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1888905314618816</v>
+        <v>0.1888905314618813</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.06281029624429778</v>
@@ -983,7 +983,7 @@
         <v>-0.1176570300696021</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2402042143724388</v>
+        <v>0.2402042143724386</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1439142954612571</v>
+        <v>-0.1334958388559516</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2978040996624664</v>
+        <v>-0.3076537983845603</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02665588409185307</v>
+        <v>0.04479555166571811</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1031669121840869</v>
+        <v>-0.1109432336823828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2576629528089822</v>
+        <v>-0.2745863857322607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05279410165336682</v>
+        <v>0.06238575132551866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05477149568185876</v>
+        <v>-0.05591252830351674</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2200868958924883</v>
+        <v>-0.2203702316420748</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1163093699167947</v>
+        <v>0.1174360419181321</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2908542956451399</v>
+        <v>0.2953566593200586</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07060425392630357</v>
+        <v>0.09412809660581375</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5331289614990085</v>
+        <v>0.524459901406976</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.205140869257254</v>
+        <v>0.1938622628976135</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.008430209908212052</v>
+        <v>0.01511448765850221</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3676514323494935</v>
+        <v>0.3644523816510988</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1927598847747564</v>
+        <v>0.1997158116108582</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01092912176375566</v>
+        <v>0.01067330183328666</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3796731428838254</v>
+        <v>0.3944866404755523</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.006651746528111</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.299544277203669</v>
+        <v>4.299544277203672</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1474102196389521</v>
@@ -1083,7 +1083,7 @@
         <v>0.5606281664103541</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.038154131965936</v>
+        <v>2.038154131965939</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.38281859860821</v>
@@ -1092,7 +1092,7 @@
         <v>1.415005124118571</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.418891764244716</v>
+        <v>3.418891764244719</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.236786938392429</v>
+        <v>1.361652972855312</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.064082419052041</v>
+        <v>-0.792467559631498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.25277361689184</v>
+        <v>1.532079911702126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.866924751965719</v>
+        <v>-4.093680861025195</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.075630611879316</v>
+        <v>-3.592656061486339</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.140464196773312</v>
+        <v>-1.310040507214022</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01524664965058816</v>
+        <v>-0.01345605819072671</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9685214668922698</v>
+        <v>-1.075219434943294</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9836845480094972</v>
+        <v>1.230658203172249</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.868153589870063</v>
+        <v>7.742512131277529</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.299708861636305</v>
+        <v>5.005535203842425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.077586198147924</v>
+        <v>7.592699931762565</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.441929671813775</v>
+        <v>3.633350236761293</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.468356783449626</v>
+        <v>4.388972200829615</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.253681154995502</v>
+        <v>5.185317616839667</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.642955675573215</v>
+        <v>4.990934832566187</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.993800431536414</v>
+        <v>4.187742651953458</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.582289901092416</v>
+        <v>5.737057975053802</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1688071581230642</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3616939770016381</v>
+        <v>0.3616939770016384</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.007326593159995833</v>
@@ -1188,7 +1188,7 @@
         <v>0.02786438076941668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1013004807865642</v>
+        <v>0.1013004807865643</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1512403354034791</v>
@@ -1197,7 +1197,7 @@
         <v>0.08981206110038492</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2170011336299721</v>
+        <v>0.2170011336299723</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.08820946172923423</v>
+        <v>0.09935030210401363</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.08531506430911823</v>
+        <v>-0.06226416061145297</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09965302823969184</v>
+        <v>0.1029745253192709</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1771282774301558</v>
+        <v>-0.1897127720114984</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1444293877613729</v>
+        <v>-0.1591655638241756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05231485219181778</v>
+        <v>-0.05963732101688867</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.001256220689834193</v>
+        <v>0.001285961938967231</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05813885517198887</v>
+        <v>-0.06401460841415249</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.05588577144634086</v>
+        <v>0.06697617703101745</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7511661641151621</v>
+        <v>0.7152992657250014</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4881732278993388</v>
+        <v>0.4749163538086527</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6651029115168978</v>
+        <v>0.7105569196009278</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1838531780443653</v>
+        <v>0.1988254439727144</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2412004018441149</v>
+        <v>0.235800489402018</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2891960026643207</v>
+        <v>0.2865010503556011</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3164900818038824</v>
+        <v>0.3466985247054035</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2752324344918432</v>
+        <v>0.2826157347963583</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3823841258010045</v>
+        <v>0.3909312589185939</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.723425986860917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.89306224837505</v>
+        <v>2.893062248375053</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.6234014570856955</v>
@@ -1306,7 +1306,7 @@
         <v>0.9528331544004121</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.976399326947562</v>
+        <v>1.976399326947559</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.853813839571681</v>
+        <v>-2.965992850500385</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.37317800458723</v>
+        <v>-1.778750893155906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.3390707051178</v>
+        <v>-0.8100398427603683</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.900573457435048</v>
+        <v>-5.945680973201763</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.854731018094283</v>
+        <v>-7.572202552614455</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.791952747689909</v>
+        <v>-4.836969611822669</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.576982472813013</v>
+        <v>-2.450715268461597</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.299921070645128</v>
+        <v>-2.161117384056439</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.6956192208430372</v>
+        <v>-1.287355211130494</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.029146746555483</v>
+        <v>5.411593899314993</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.077507123070978</v>
+        <v>6.777480263220468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.70190299343807</v>
+        <v>6.538130188309794</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.170894966378809</v>
+        <v>5.151397305458249</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.184033207429143</v>
+        <v>3.557040701488016</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.689203832372909</v>
+        <v>4.670576734330263</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.187756859085664</v>
+        <v>4.246047642026626</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.244200447748538</v>
+        <v>4.66573309602418</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.886413343318966</v>
+        <v>4.797796763204847</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2671852628800122</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2838276498386818</v>
+        <v>0.2838276498386821</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.03359383041031368</v>
@@ -1411,7 +1411,7 @@
         <v>0.06896315933819444</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1430457589250801</v>
+        <v>0.1430457589250799</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2403962886666224</v>
+        <v>-0.2490253631427199</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.120921658515246</v>
+        <v>-0.1584178445397097</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1065861438739428</v>
+        <v>-0.06694157228033558</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2749621147154922</v>
+        <v>-0.2819592365199013</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.323985632675257</v>
+        <v>-0.3456156066799002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2139359700391271</v>
+        <v>-0.2147158125322195</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1670247526185334</v>
+        <v>-0.1644839228041342</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1536166702820305</v>
+        <v>-0.1366188606203349</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.0455904075295793</v>
+        <v>-0.07598272813929498</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6196334142268215</v>
+        <v>0.6551163316672192</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8518782931413084</v>
+        <v>0.7989571385187335</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7116991759738942</v>
+        <v>0.86158796595425</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3347312208586713</v>
+        <v>0.3541403036437096</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2752174686945901</v>
+        <v>0.2405467844715956</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3139622942627294</v>
+        <v>0.3176249878567242</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3534015009675092</v>
+        <v>0.3737182074730758</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3513985987007894</v>
+        <v>0.388020217983128</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4195197871668629</v>
+        <v>0.4116560403578922</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1708020051899933</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.850045567598461</v>
+        <v>2.850045567598458</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.204348119798854</v>
@@ -1520,7 +1520,7 @@
         <v>-1.421274996836297</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.147783352502096</v>
+        <v>1.147783352502099</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7375251846719278</v>
+        <v>-0.7814736365730833</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.459502480303669</v>
+        <v>-1.595366127444823</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.065162346591279</v>
+        <v>0.7923692761200387</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.539113973957583</v>
+        <v>-3.366285054989143</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.434223553954431</v>
+        <v>-5.174571084369449</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.59478515443592</v>
+        <v>-2.61148562194491</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.442984546272536</v>
+        <v>-1.448802737962083</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.822859929726665</v>
+        <v>-2.787912912161395</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.266032624544</v>
+        <v>-0.3408389083299773</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.063492614326543</v>
+        <v>3.119028276954556</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.100141099140656</v>
+        <v>2.031445236552702</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.77823651970296</v>
+        <v>4.482204090348587</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.91111385160533</v>
+        <v>1.049647443947764</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.152452576588037</v>
+        <v>-0.6800341578692453</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.230188217002987</v>
+        <v>1.519479858278748</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.397157822170199</v>
+        <v>1.416046285253477</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06494467854534239</v>
+        <v>0.06103895834767026</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.526851210960394</v>
+        <v>2.433568890458076</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.01080109504449285</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1802298106660052</v>
+        <v>0.180229810666005</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04276126056957637</v>
@@ -1625,7 +1625,7 @@
         <v>-0.06440304656841531</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.05201016331546609</v>
+        <v>0.05201016331546621</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04488884306065692</v>
+        <v>-0.04674555423477834</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08776658421720296</v>
+        <v>-0.09642442917130865</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.06533431307915669</v>
+        <v>0.04643160906986812</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1202528021840007</v>
+        <v>-0.115513989394143</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1858700265497</v>
+        <v>-0.1787539401648463</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08939666957532419</v>
+        <v>-0.08874005994509249</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06353956766362526</v>
+        <v>-0.0635230540121714</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1230502072077006</v>
+        <v>-0.1235589470148844</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01167364119991949</v>
+        <v>-0.0150604357078586</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.203991715150391</v>
+        <v>0.2083029900815611</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1396339907637023</v>
+        <v>0.138489638785907</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3217797695598184</v>
+        <v>0.2983010565939009</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.03299429315000207</v>
+        <v>0.0380780487331374</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04200471932609868</v>
+        <v>-0.02518854117484254</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04559798588696509</v>
+        <v>0.05808111229800401</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06522028791334408</v>
+        <v>0.06594634395612792</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.00315789237728263</v>
+        <v>0.00252856680178032</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1191578559429431</v>
+        <v>0.1140800191952103</v>
       </c>
     </row>
     <row r="34">
